--- a/Team-Data/2010-11/3-30-2010-11.xlsx
+++ b/Team-Data/2010-11/3-30-2010-11.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -681,13 +748,13 @@
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36.2</v>
+        <v>36.4</v>
       </c>
       <c r="J2" t="n">
-        <v>78.40000000000001</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L2" t="n">
         <v>6.3</v>
@@ -696,16 +763,16 @@
         <v>17.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O2" t="n">
-        <v>16.1</v>
+        <v>16.3</v>
       </c>
       <c r="P2" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.777</v>
+        <v>0.778</v>
       </c>
       <c r="R2" t="n">
         <v>9.300000000000001</v>
@@ -735,25 +802,25 @@
         <v>18.9</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.90000000000001</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH2" t="n">
         <v>28</v>
@@ -762,10 +829,10 @@
         <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL2" t="n">
         <v>13</v>
@@ -789,7 +856,7 @@
         <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
         <v>26</v>
@@ -798,13 +865,13 @@
         <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW2" t="n">
         <v>29</v>
       </c>
       <c r="AX2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY2" t="n">
         <v>5</v>
@@ -816,7 +883,7 @@
         <v>30</v>
       </c>
       <c r="BB2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC2" t="n">
         <v>16</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -848,28 +915,28 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
-        <v>0.704</v>
+        <v>0.699</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>37</v>
+        <v>36.8</v>
       </c>
       <c r="J3" t="n">
-        <v>76.09999999999999</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.486</v>
+        <v>0.485</v>
       </c>
       <c r="L3" t="n">
         <v>5.1</v>
@@ -878,7 +945,7 @@
         <v>13.9</v>
       </c>
       <c r="N3" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O3" t="n">
         <v>17.9</v>
@@ -887,28 +954,28 @@
         <v>23.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R3" t="n">
         <v>7.9</v>
       </c>
       <c r="S3" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T3" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="U3" t="n">
         <v>23.5</v>
       </c>
       <c r="V3" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="W3" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y3" t="n">
         <v>4.5</v>
@@ -920,19 +987,19 @@
         <v>20.4</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.90000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG3" t="n">
         <v>5</v>
@@ -941,7 +1008,7 @@
         <v>24</v>
       </c>
       <c r="AI3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -959,7 +1026,7 @@
         <v>12</v>
       </c>
       <c r="AO3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -971,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
@@ -980,16 +1047,16 @@
         <v>5</v>
       </c>
       <c r="AV3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AW3" t="n">
         <v>3</v>
       </c>
       <c r="AX3" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ3" t="n">
         <v>16</v>
@@ -1001,7 +1068,7 @@
         <v>21</v>
       </c>
       <c r="BC3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -1033,58 +1100,58 @@
         <v>73</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" t="n">
-        <v>0.438</v>
+        <v>0.425</v>
       </c>
       <c r="H4" t="n">
         <v>48.3</v>
       </c>
       <c r="I4" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="J4" t="n">
         <v>77.40000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.449</v>
+        <v>0.447</v>
       </c>
       <c r="L4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M4" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="N4" t="n">
-        <v>0.324</v>
+        <v>0.325</v>
       </c>
       <c r="O4" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P4" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.753</v>
+        <v>0.756</v>
       </c>
       <c r="R4" t="n">
         <v>10.6</v>
       </c>
       <c r="S4" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T4" t="n">
-        <v>40.8</v>
+        <v>40.9</v>
       </c>
       <c r="U4" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="V4" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="W4" t="n">
         <v>6.3</v>
@@ -1102,22 +1169,22 @@
         <v>21.4</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.2</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.7</v>
+        <v>-3.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>19</v>
       </c>
       <c r="AG4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH4" t="n">
         <v>18</v>
@@ -1129,7 +1196,7 @@
         <v>28</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL4" t="n">
         <v>28</v>
@@ -1147,37 +1214,37 @@
         <v>10</v>
       </c>
       <c r="AQ4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR4" t="n">
         <v>18</v>
       </c>
       <c r="AS4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU4" t="n">
         <v>20</v>
       </c>
-      <c r="AT4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>21</v>
-      </c>
       <c r="AV4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW4" t="n">
         <v>28</v>
       </c>
       <c r="AX4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -1215,25 +1282,25 @@
         <v>73</v>
       </c>
       <c r="E5" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.74</v>
+        <v>0.726</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J5" t="n">
-        <v>80.5</v>
+        <v>80.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L5" t="n">
         <v>6.2</v>
@@ -1242,31 +1309,31 @@
         <v>17.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.362</v>
+        <v>0.359</v>
       </c>
       <c r="O5" t="n">
         <v>18.1</v>
       </c>
       <c r="P5" t="n">
-        <v>24.6</v>
+        <v>24.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.736</v>
+        <v>0.732</v>
       </c>
       <c r="R5" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S5" t="n">
-        <v>32.4</v>
+        <v>32.3</v>
       </c>
       <c r="T5" t="n">
         <v>44.3</v>
       </c>
       <c r="U5" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V5" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W5" t="n">
         <v>7.2</v>
@@ -1275,22 +1342,22 @@
         <v>5.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z5" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AA5" t="n">
         <v>20.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE5" t="n">
         <v>2</v>
@@ -1305,22 +1372,22 @@
         <v>10</v>
       </c>
       <c r="AI5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>17</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>19</v>
       </c>
       <c r="AK5" t="n">
         <v>16</v>
       </c>
       <c r="AL5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM5" t="n">
         <v>17</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO5" t="n">
         <v>15</v>
@@ -1332,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS5" t="n">
         <v>4</v>
@@ -1341,22 +1408,22 @@
         <v>2</v>
       </c>
       <c r="AU5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV5" t="n">
         <v>16</v>
       </c>
       <c r="AW5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA5" t="n">
         <v>22</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -1397,13 +1464,13 @@
         <v>73</v>
       </c>
       <c r="E6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G6" t="n">
-        <v>0.192</v>
+        <v>0.205</v>
       </c>
       <c r="H6" t="n">
         <v>48.2</v>
@@ -1412,19 +1479,19 @@
         <v>34.9</v>
       </c>
       <c r="J6" t="n">
-        <v>81.09999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="L6" t="n">
         <v>6.2</v>
       </c>
       <c r="M6" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="N6" t="n">
-        <v>0.347</v>
+        <v>0.345</v>
       </c>
       <c r="O6" t="n">
         <v>18.7</v>
@@ -1433,22 +1500,22 @@
         <v>25.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="R6" t="n">
         <v>10.5</v>
       </c>
       <c r="S6" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T6" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="U6" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V6" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W6" t="n">
         <v>6.7</v>
@@ -1457,7 +1524,7 @@
         <v>4.2</v>
       </c>
       <c r="Y6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Z6" t="n">
         <v>20</v>
@@ -1469,10 +1536,10 @@
         <v>94.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>-10.1</v>
+        <v>-10</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE6" t="n">
         <v>30</v>
@@ -1484,28 +1551,28 @@
         <v>30</v>
       </c>
       <c r="AH6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI6" t="n">
         <v>28</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM6" t="n">
         <v>15</v>
       </c>
       <c r="AN6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP6" t="n">
         <v>9</v>
@@ -1523,7 +1590,7 @@
         <v>20</v>
       </c>
       <c r="AU6" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV6" t="n">
         <v>20</v>
@@ -1532,16 +1599,16 @@
         <v>23</v>
       </c>
       <c r="AX6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY6" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
         <v>8</v>
       </c>
       <c r="BA6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB6" t="n">
         <v>27</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -1594,40 +1661,40 @@
         <v>37.3</v>
       </c>
       <c r="J7" t="n">
-        <v>78.59999999999999</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K7" t="n">
         <v>0.475</v>
       </c>
       <c r="L7" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M7" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="N7" t="n">
-        <v>0.372</v>
+        <v>0.37</v>
       </c>
       <c r="O7" t="n">
         <v>17.6</v>
       </c>
       <c r="P7" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.781</v>
+        <v>0.785</v>
       </c>
       <c r="R7" t="n">
         <v>9.4</v>
       </c>
       <c r="S7" t="n">
-        <v>31.8</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U7" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="V7" t="n">
         <v>13.8</v>
@@ -1642,22 +1709,22 @@
         <v>3.8</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
         <v>20.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF7" t="n">
         <v>4</v>
@@ -1669,13 +1736,13 @@
         <v>30</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL7" t="n">
         <v>8</v>
@@ -1690,16 +1757,16 @@
         <v>25</v>
       </c>
       <c r="AP7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AR7" t="n">
         <v>28</v>
       </c>
       <c r="AS7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT7" t="n">
         <v>15</v>
@@ -1708,13 +1775,13 @@
         <v>2</v>
       </c>
       <c r="AV7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AW7" t="n">
         <v>24</v>
       </c>
       <c r="AX7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY7" t="n">
         <v>2</v>
@@ -1726,7 +1793,7 @@
         <v>24</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -1779,7 +1846,7 @@
         <v>80.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.476</v>
+        <v>0.475</v>
       </c>
       <c r="L8" t="n">
         <v>8.199999999999999</v>
@@ -1788,19 +1855,19 @@
         <v>20.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.39</v>
+        <v>0.391</v>
       </c>
       <c r="O8" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="P8" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.772</v>
+        <v>0.774</v>
       </c>
       <c r="R8" t="n">
-        <v>9.5</v>
+        <v>9.6</v>
       </c>
       <c r="S8" t="n">
         <v>32.3</v>
@@ -1824,19 +1891,19 @@
         <v>6</v>
       </c>
       <c r="Z8" t="n">
-        <v>20.9</v>
+        <v>21.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.6</v>
+        <v>107.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE8" t="n">
         <v>9</v>
@@ -1854,10 +1921,10 @@
         <v>8</v>
       </c>
       <c r="AJ8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL8" t="n">
         <v>7</v>
@@ -1875,13 +1942,13 @@
         <v>1</v>
       </c>
       <c r="AQ8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR8" t="n">
         <v>27</v>
       </c>
       <c r="AS8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
         <v>12</v>
@@ -1896,10 +1963,10 @@
         <v>15</v>
       </c>
       <c r="AX8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ8" t="n">
         <v>19</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -1955,46 +2022,46 @@
         <v>48.5</v>
       </c>
       <c r="I9" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J9" t="n">
         <v>81.09999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M9" t="n">
-        <v>15.4</v>
+        <v>15.6</v>
       </c>
       <c r="N9" t="n">
-        <v>0.379</v>
+        <v>0.381</v>
       </c>
       <c r="O9" t="n">
         <v>16.3</v>
       </c>
       <c r="P9" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.734</v>
+        <v>0.729</v>
       </c>
       <c r="R9" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S9" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="T9" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="U9" t="n">
         <v>20.9</v>
       </c>
       <c r="V9" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W9" t="n">
         <v>7.2</v>
@@ -2009,16 +2076,16 @@
         <v>19.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>96.2</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>-4.1</v>
+        <v>-4</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE9" t="n">
         <v>24</v>
@@ -2033,19 +2100,19 @@
         <v>6</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK9" t="n">
         <v>20</v>
       </c>
       <c r="AL9" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN9" t="n">
         <v>4</v>
@@ -2054,10 +2121,10 @@
         <v>28</v>
       </c>
       <c r="AP9" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>28</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>27</v>
       </c>
       <c r="AR9" t="n">
         <v>12</v>
@@ -2069,13 +2136,13 @@
         <v>30</v>
       </c>
       <c r="AU9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AX9" t="n">
         <v>30</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -2125,25 +2192,25 @@
         <v>75</v>
       </c>
       <c r="E10" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G10" t="n">
-        <v>0.413</v>
+        <v>0.427</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="J10" t="n">
-        <v>85.59999999999999</v>
+        <v>85.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L10" t="n">
         <v>8.4</v>
@@ -2152,64 +2219,64 @@
         <v>21.3</v>
       </c>
       <c r="N10" t="n">
-        <v>0.393</v>
+        <v>0.394</v>
       </c>
       <c r="O10" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="P10" t="n">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.755</v>
+        <v>0.757</v>
       </c>
       <c r="R10" t="n">
         <v>11.5</v>
       </c>
       <c r="S10" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="T10" t="n">
         <v>40.3</v>
       </c>
       <c r="U10" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V10" t="n">
         <v>14.9</v>
       </c>
       <c r="W10" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="X10" t="n">
         <v>4.9</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z10" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>102.9</v>
+        <v>103.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.1</v>
+        <v>-2.8</v>
       </c>
       <c r="AD10" t="n">
         <v>1</v>
       </c>
       <c r="AE10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF10" t="n">
         <v>21</v>
       </c>
-      <c r="AF10" t="n">
-        <v>22</v>
-      </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
         <v>14</v>
@@ -2239,7 +2306,7 @@
         <v>30</v>
       </c>
       <c r="AQ10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR10" t="n">
         <v>11</v>
@@ -2254,28 +2321,28 @@
         <v>7</v>
       </c>
       <c r="AV10" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AW10" t="n">
         <v>2</v>
       </c>
       <c r="AX10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ10" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BA10" t="n">
         <v>29</v>
       </c>
       <c r="BB10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BC10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11" t="n">
         <v>39</v>
       </c>
       <c r="F11" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" t="n">
-        <v>0.534</v>
+        <v>0.527</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
@@ -2322,10 +2389,10 @@
         <v>38.6</v>
       </c>
       <c r="J11" t="n">
-        <v>84.90000000000001</v>
+        <v>85</v>
       </c>
       <c r="K11" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L11" t="n">
         <v>8.300000000000001</v>
@@ -2334,31 +2401,31 @@
         <v>22.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.371</v>
+        <v>0.369</v>
       </c>
       <c r="O11" t="n">
-        <v>20.2</v>
+        <v>20.5</v>
       </c>
       <c r="P11" t="n">
-        <v>25.3</v>
+        <v>25.7</v>
       </c>
       <c r="Q11" t="n">
         <v>0.798</v>
       </c>
       <c r="R11" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S11" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T11" t="n">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
       <c r="U11" t="n">
         <v>23.6</v>
       </c>
       <c r="V11" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W11" t="n">
         <v>7.2</v>
@@ -2367,22 +2434,22 @@
         <v>4.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA11" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>105.6</v>
+        <v>106.1</v>
       </c>
       <c r="AC11" t="n">
         <v>2.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
@@ -2394,10 +2461,10 @@
         <v>14</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ11" t="n">
         <v>3</v>
@@ -2415,10 +2482,10 @@
         <v>8</v>
       </c>
       <c r="AO11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AQ11" t="n">
         <v>4</v>
@@ -2427,37 +2494,37 @@
         <v>8</v>
       </c>
       <c r="AS11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT11" t="n">
         <v>7</v>
       </c>
       <c r="AU11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV11" t="n">
         <v>6</v>
       </c>
       <c r="AW11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX11" t="n">
         <v>18</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA11" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BB11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -2489,13 +2556,13 @@
         <v>75</v>
       </c>
       <c r="E12" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G12" t="n">
-        <v>0.453</v>
+        <v>0.44</v>
       </c>
       <c r="H12" t="n">
         <v>48.3</v>
@@ -2504,43 +2571,43 @@
         <v>36.4</v>
       </c>
       <c r="J12" t="n">
-        <v>82.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L12" t="n">
         <v>7.1</v>
       </c>
       <c r="M12" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O12" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="P12" t="n">
         <v>24.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.786</v>
+        <v>0.782</v>
       </c>
       <c r="R12" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S12" t="n">
         <v>32.6</v>
       </c>
       <c r="T12" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
         <v>19.5</v>
       </c>
       <c r="V12" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W12" t="n">
         <v>7.1</v>
@@ -2552,7 +2619,7 @@
         <v>5.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="AA12" t="n">
         <v>21.5</v>
@@ -2561,7 +2628,7 @@
         <v>99.40000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.1</v>
+        <v>-1.4</v>
       </c>
       <c r="AD12" t="n">
         <v>1</v>
@@ -2582,10 +2649,10 @@
         <v>22</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
         <v>10</v>
@@ -2594,7 +2661,7 @@
         <v>9</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
         <v>7</v>
@@ -2603,7 +2670,7 @@
         <v>11</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR12" t="n">
         <v>14</v>
@@ -2612,7 +2679,7 @@
         <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU12" t="n">
         <v>29</v>
@@ -2633,10 +2700,10 @@
         <v>22</v>
       </c>
       <c r="BA12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC12" t="n">
         <v>19</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -2689,40 +2756,40 @@
         <v>80.40000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L13" t="n">
         <v>6.3</v>
       </c>
       <c r="M13" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.337</v>
+        <v>0.338</v>
       </c>
       <c r="O13" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="P13" t="n">
         <v>26.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.712</v>
+        <v>0.709</v>
       </c>
       <c r="R13" t="n">
         <v>11.6</v>
       </c>
       <c r="S13" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="T13" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U13" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V13" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="W13" t="n">
         <v>6.9</v>
@@ -2737,19 +2804,19 @@
         <v>21.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC13" t="n">
         <v>-2.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF13" t="n">
         <v>23</v>
@@ -2788,10 +2855,10 @@
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT13" t="n">
         <v>11</v>
@@ -2800,16 +2867,16 @@
         <v>10</v>
       </c>
       <c r="AV13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW13" t="n">
         <v>22</v>
       </c>
       <c r="AX13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ13" t="n">
         <v>20</v>
@@ -2818,10 +2885,10 @@
         <v>3</v>
       </c>
       <c r="BB13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E14" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F14" t="n">
         <v>20</v>
       </c>
       <c r="G14" t="n">
-        <v>0.722</v>
+        <v>0.726</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
@@ -2868,7 +2935,7 @@
         <v>38.4</v>
       </c>
       <c r="J14" t="n">
-        <v>82.3</v>
+        <v>82.5</v>
       </c>
       <c r="K14" t="n">
         <v>0.466</v>
@@ -2880,7 +2947,7 @@
         <v>18.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O14" t="n">
         <v>18.7</v>
@@ -2889,7 +2956,7 @@
         <v>23.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.783</v>
+        <v>0.784</v>
       </c>
       <c r="R14" t="n">
         <v>12.2</v>
@@ -2922,22 +2989,22 @@
         <v>20.6</v>
       </c>
       <c r="AB14" t="n">
-        <v>101.8</v>
+        <v>102</v>
       </c>
       <c r="AC14" t="n">
         <v>6.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH14" t="n">
         <v>15</v>
@@ -2946,25 +3013,25 @@
         <v>6</v>
       </c>
       <c r="AJ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL14" t="n">
         <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AN14" t="n">
         <v>16</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ14" t="n">
         <v>6</v>
@@ -2973,10 +3040,10 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU14" t="n">
         <v>12</v>
@@ -2985,22 +3052,22 @@
         <v>2</v>
       </c>
       <c r="AW14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY14" t="n">
         <v>9</v>
       </c>
       <c r="AZ14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA14" t="n">
         <v>19</v>
       </c>
       <c r="BB14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -3035,25 +3102,25 @@
         <v>74</v>
       </c>
       <c r="E15" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F15" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.554</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="J15" t="n">
         <v>83.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.47</v>
+        <v>0.469</v>
       </c>
       <c r="L15" t="n">
         <v>3.7</v>
@@ -3065,13 +3132,13 @@
         <v>0.327</v>
       </c>
       <c r="O15" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="P15" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.752</v>
+        <v>0.754</v>
       </c>
       <c r="R15" t="n">
         <v>11.8</v>
@@ -3080,13 +3147,13 @@
         <v>29.1</v>
       </c>
       <c r="T15" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="V15" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W15" t="n">
         <v>9.4</v>
@@ -3098,31 +3165,31 @@
         <v>6.2</v>
       </c>
       <c r="Z15" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI15" t="n">
         <v>3</v>
@@ -3131,7 +3198,7 @@
         <v>8</v>
       </c>
       <c r="AK15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL15" t="n">
         <v>30</v>
@@ -3149,7 +3216,7 @@
         <v>14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR15" t="n">
         <v>7</v>
@@ -3158,13 +3225,13 @@
         <v>24</v>
       </c>
       <c r="AT15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU15" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AV15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
@@ -3176,16 +3243,16 @@
         <v>30</v>
       </c>
       <c r="AZ15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -3214,46 +3281,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" t="n">
         <v>51</v>
       </c>
       <c r="F16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G16" t="n">
-        <v>0.699</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
       </c>
       <c r="I16" t="n">
-        <v>37.1</v>
+        <v>36.8</v>
       </c>
       <c r="J16" t="n">
         <v>77.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.48</v>
+        <v>0.477</v>
       </c>
       <c r="L16" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M16" t="n">
         <v>18.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O16" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="P16" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R16" t="n">
         <v>9.6</v>
@@ -3265,10 +3332,10 @@
         <v>42.3</v>
       </c>
       <c r="U16" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="V16" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="W16" t="n">
         <v>6.6</v>
@@ -3277,22 +3344,22 @@
         <v>5.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Z16" t="n">
         <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="AB16" t="n">
-        <v>102.5</v>
+        <v>101.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
@@ -3304,10 +3371,10 @@
         <v>6</v>
       </c>
       <c r="AH16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
@@ -3319,10 +3386,10 @@
         <v>11</v>
       </c>
       <c r="AM16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AN16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO16" t="n">
         <v>3</v>
@@ -3343,28 +3410,28 @@
         <v>9</v>
       </c>
       <c r="AU16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW16" t="n">
         <v>25</v>
       </c>
       <c r="AX16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY16" t="n">
         <v>1</v>
       </c>
       <c r="AZ16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA16" t="n">
         <v>5</v>
       </c>
       <c r="BB16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC16" t="n">
         <v>2</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -3399,55 +3466,55 @@
         <v>73</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17" t="n">
-        <v>0.411</v>
+        <v>0.397</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="J17" t="n">
         <v>79.8</v>
       </c>
       <c r="K17" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="L17" t="n">
         <v>5.9</v>
       </c>
       <c r="M17" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.346</v>
+        <v>0.344</v>
       </c>
       <c r="O17" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P17" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.753</v>
+        <v>0.751</v>
       </c>
       <c r="R17" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S17" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T17" t="n">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="U17" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="V17" t="n">
         <v>13.5</v>
@@ -3456,31 +3523,31 @@
         <v>7.4</v>
       </c>
       <c r="X17" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y17" t="n">
         <v>4.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AA17" t="n">
         <v>21</v>
       </c>
       <c r="AB17" t="n">
-        <v>91.59999999999999</v>
+        <v>91.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
         <v>22</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
         <v>22</v>
@@ -3498,31 +3565,31 @@
         <v>30</v>
       </c>
       <c r="AL17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="n">
         <v>18</v>
       </c>
       <c r="AN17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO17" t="n">
         <v>27</v>
       </c>
       <c r="AP17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AS17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU17" t="n">
         <v>30</v>
@@ -3531,16 +3598,16 @@
         <v>7</v>
       </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA17" t="n">
         <v>16</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -3593,70 +3660,70 @@
         <v>48.2</v>
       </c>
       <c r="I18" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J18" t="n">
         <v>85.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.437</v>
+        <v>0.438</v>
       </c>
       <c r="L18" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="M18" t="n">
         <v>19.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.374</v>
+        <v>0.375</v>
       </c>
       <c r="O18" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P18" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q18" t="n">
         <v>0.767</v>
       </c>
       <c r="R18" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="S18" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T18" t="n">
-        <v>44.9</v>
+        <v>45</v>
       </c>
       <c r="U18" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V18" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="W18" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X18" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y18" t="n">
         <v>5.7</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB18" t="n">
-        <v>100.7</v>
+        <v>101.1</v>
       </c>
       <c r="AC18" t="n">
-        <v>-6</v>
+        <v>-5.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3668,10 +3735,10 @@
         <v>29</v>
       </c>
       <c r="AH18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>2</v>
@@ -3707,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="AU18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV18" t="n">
         <v>30</v>
@@ -3716,22 +3783,22 @@
         <v>16</v>
       </c>
       <c r="AX18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY18" t="n">
         <v>24</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB18" t="n">
         <v>10</v>
       </c>
       <c r="BC18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -3763,22 +3830,22 @@
         <v>73</v>
       </c>
       <c r="E19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F19" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" t="n">
-        <v>0.301</v>
+        <v>0.315</v>
       </c>
       <c r="H19" t="n">
         <v>48.9</v>
       </c>
       <c r="I19" t="n">
-        <v>35.3</v>
+        <v>35.2</v>
       </c>
       <c r="J19" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K19" t="n">
         <v>0.437</v>
@@ -3787,28 +3854,28 @@
         <v>5.6</v>
       </c>
       <c r="M19" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N19" t="n">
         <v>0.343</v>
       </c>
       <c r="O19" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P19" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.76</v>
+        <v>0.758</v>
       </c>
       <c r="R19" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S19" t="n">
         <v>30.4</v>
       </c>
       <c r="T19" t="n">
-        <v>41.6</v>
+        <v>41.5</v>
       </c>
       <c r="U19" t="n">
         <v>20.8</v>
@@ -3832,13 +3899,13 @@
         <v>20</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.7</v>
+        <v>93.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.9</v>
+        <v>-5.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE19" t="n">
         <v>25</v>
@@ -3856,7 +3923,7 @@
         <v>27</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="n">
         <v>28</v>
@@ -3868,13 +3935,13 @@
         <v>20</v>
       </c>
       <c r="AN19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP19" t="n">
         <v>24</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>22</v>
       </c>
       <c r="AQ19" t="n">
         <v>18</v>
@@ -3883,7 +3950,7 @@
         <v>13</v>
       </c>
       <c r="AS19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT19" t="n">
         <v>14</v>
@@ -3892,7 +3959,7 @@
         <v>19</v>
       </c>
       <c r="AV19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW19" t="n">
         <v>30</v>
@@ -3904,7 +3971,7 @@
         <v>13</v>
       </c>
       <c r="AZ19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA19" t="n">
         <v>25</v>
@@ -3913,7 +3980,7 @@
         <v>28</v>
       </c>
       <c r="BC19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -3969,10 +4036,10 @@
         <v>5.4</v>
       </c>
       <c r="M20" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O20" t="n">
         <v>17.8</v>
@@ -3984,31 +4051,31 @@
         <v>0.767</v>
       </c>
       <c r="R20" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S20" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="T20" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U20" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V20" t="n">
         <v>13.1</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X20" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AA20" t="n">
         <v>20.4</v>
@@ -4020,19 +4087,19 @@
         <v>1.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
         <v>26</v>
@@ -4053,10 +4120,10 @@
         <v>15</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ20" t="n">
         <v>14</v>
@@ -4065,19 +4132,19 @@
         <v>23</v>
       </c>
       <c r="AS20" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AT20" t="n">
         <v>22</v>
       </c>
       <c r="AU20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX20" t="n">
         <v>20</v>
@@ -4086,16 +4153,16 @@
         <v>19</v>
       </c>
       <c r="AZ20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA20" t="n">
         <v>20</v>
       </c>
       <c r="BB20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -4139,13 +4206,13 @@
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J21" t="n">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L21" t="n">
         <v>9.199999999999999</v>
@@ -4157,34 +4224,34 @@
         <v>0.368</v>
       </c>
       <c r="O21" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="P21" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="R21" t="n">
         <v>10.4</v>
       </c>
       <c r="S21" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T21" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U21" t="n">
-        <v>21.4</v>
+        <v>21.2</v>
       </c>
       <c r="V21" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W21" t="n">
         <v>7.5</v>
       </c>
       <c r="X21" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Y21" t="n">
         <v>4.5</v>
@@ -4193,31 +4260,31 @@
         <v>21.4</v>
       </c>
       <c r="AA21" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB21" t="n">
-        <v>106.3</v>
+        <v>106</v>
       </c>
       <c r="AC21" t="n">
         <v>0.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
         <v>16</v>
       </c>
       <c r="AF21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG21" t="n">
         <v>17</v>
       </c>
       <c r="AH21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ21" t="n">
         <v>6</v>
@@ -4235,16 +4302,16 @@
         <v>9</v>
       </c>
       <c r="AO21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ21" t="n">
         <v>2</v>
       </c>
       <c r="AR21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS21" t="n">
         <v>22</v>
@@ -4256,13 +4323,13 @@
         <v>15</v>
       </c>
       <c r="AV21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY21" t="n">
         <v>10</v>
@@ -4274,7 +4341,7 @@
         <v>17</v>
       </c>
       <c r="BB21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC21" t="n">
         <v>15</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -4321,49 +4388,49 @@
         <v>48.8</v>
       </c>
       <c r="I22" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J22" t="n">
         <v>80.5</v>
       </c>
       <c r="K22" t="n">
-        <v>0.464</v>
+        <v>0.462</v>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M22" t="n">
         <v>17</v>
       </c>
       <c r="N22" t="n">
-        <v>0.353</v>
+        <v>0.35</v>
       </c>
       <c r="O22" t="n">
-        <v>23.9</v>
+        <v>24.2</v>
       </c>
       <c r="P22" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.823</v>
+        <v>0.824</v>
       </c>
       <c r="R22" t="n">
         <v>10.8</v>
       </c>
       <c r="S22" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T22" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U22" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V22" t="n">
         <v>13.9</v>
       </c>
       <c r="W22" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
         <v>5.8</v>
@@ -4372,19 +4439,19 @@
         <v>4.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
         <v>7</v>
@@ -4396,16 +4463,16 @@
         <v>7</v>
       </c>
       <c r="AH22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AK22" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL22" t="n">
         <v>18</v>
@@ -4414,7 +4481,7 @@
         <v>19</v>
       </c>
       <c r="AN22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO22" t="n">
         <v>1</v>
@@ -4429,13 +4496,13 @@
         <v>17</v>
       </c>
       <c r="AS22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AT22" t="n">
         <v>8</v>
       </c>
       <c r="AU22" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV22" t="n">
         <v>14</v>
@@ -4450,7 +4517,7 @@
         <v>6</v>
       </c>
       <c r="AZ22" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="BA22" t="n">
         <v>6</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -4491,58 +4558,58 @@
         <v>74</v>
       </c>
       <c r="E23" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G23" t="n">
-        <v>0.622</v>
+        <v>0.635</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>36.2</v>
+        <v>36.3</v>
       </c>
       <c r="J23" t="n">
         <v>78.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.461</v>
+        <v>0.463</v>
       </c>
       <c r="L23" t="n">
         <v>9.4</v>
       </c>
       <c r="M23" t="n">
-        <v>25.6</v>
+        <v>25.7</v>
       </c>
       <c r="N23" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="O23" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P23" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="R23" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S23" t="n">
-        <v>32.7</v>
+        <v>32.9</v>
       </c>
       <c r="T23" t="n">
-        <v>43.2</v>
+        <v>43.4</v>
       </c>
       <c r="U23" t="n">
         <v>20.1</v>
       </c>
       <c r="V23" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="W23" t="n">
         <v>6.5</v>
@@ -4557,16 +4624,16 @@
         <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB23" t="n">
-        <v>99.5</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>8</v>
@@ -4578,7 +4645,7 @@
         <v>8</v>
       </c>
       <c r="AH23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI23" t="n">
         <v>24</v>
@@ -4587,7 +4654,7 @@
         <v>25</v>
       </c>
       <c r="AK23" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AL23" t="n">
         <v>1</v>
@@ -4596,10 +4663,10 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP23" t="n">
         <v>5</v>
@@ -4617,13 +4684,13 @@
         <v>6</v>
       </c>
       <c r="AU23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV23" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AW23" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX23" t="n">
         <v>17</v>
@@ -4638,7 +4705,7 @@
         <v>4</v>
       </c>
       <c r="BB23" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC23" t="n">
         <v>6</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -4673,25 +4740,25 @@
         <v>74</v>
       </c>
       <c r="E24" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F24" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="n">
-        <v>0.527</v>
+        <v>0.514</v>
       </c>
       <c r="H24" t="n">
         <v>48.6</v>
       </c>
       <c r="I24" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J24" t="n">
-        <v>82.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K24" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L24" t="n">
         <v>5.5</v>
@@ -4709,22 +4776,22 @@
         <v>23</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R24" t="n">
         <v>10.4</v>
       </c>
       <c r="S24" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T24" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U24" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V24" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W24" t="n">
         <v>7.6</v>
@@ -4736,22 +4803,22 @@
         <v>4.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA24" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB24" t="n">
-        <v>99.59999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF24" t="n">
         <v>15</v>
@@ -4763,25 +4830,25 @@
         <v>5</v>
       </c>
       <c r="AI24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AJ24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
       </c>
       <c r="AM24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP24" t="n">
         <v>25</v>
@@ -4793,7 +4860,7 @@
         <v>21</v>
       </c>
       <c r="AS24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT24" t="n">
         <v>10</v>
@@ -4811,7 +4878,7 @@
         <v>23</v>
       </c>
       <c r="AY24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ24" t="n">
         <v>6</v>
@@ -4820,10 +4887,10 @@
         <v>27</v>
       </c>
       <c r="BB24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E25" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F25" t="n">
         <v>37</v>
       </c>
       <c r="G25" t="n">
-        <v>0.486</v>
+        <v>0.493</v>
       </c>
       <c r="H25" t="n">
         <v>48.8</v>
@@ -4870,43 +4937,43 @@
         <v>39.2</v>
       </c>
       <c r="J25" t="n">
-        <v>83.59999999999999</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K25" t="n">
         <v>0.47</v>
       </c>
       <c r="L25" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M25" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.378</v>
+        <v>0.38</v>
       </c>
       <c r="O25" t="n">
         <v>18</v>
       </c>
       <c r="P25" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="R25" t="n">
         <v>10</v>
       </c>
       <c r="S25" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="T25" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U25" t="n">
         <v>23.8</v>
       </c>
       <c r="V25" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W25" t="n">
         <v>6.5</v>
@@ -4915,7 +4982,7 @@
         <v>4.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z25" t="n">
         <v>20.4</v>
@@ -4924,22 +4991,22 @@
         <v>21.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="AE25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AF25" t="n">
         <v>16</v>
       </c>
       <c r="AG25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH25" t="n">
         <v>2</v>
@@ -4951,7 +5018,7 @@
         <v>7</v>
       </c>
       <c r="AK25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL25" t="n">
         <v>3</v>
@@ -4966,16 +5033,16 @@
         <v>16</v>
       </c>
       <c r="AP25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ25" t="n">
         <v>17</v>
       </c>
       <c r="AR25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT25" t="n">
         <v>23</v>
@@ -4987,19 +5054,19 @@
         <v>18</v>
       </c>
       <c r="AW25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX25" t="n">
         <v>22</v>
       </c>
       <c r="AY25" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AZ25" t="n">
         <v>13</v>
       </c>
       <c r="BA25" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BB25" t="n">
         <v>4</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -5034,94 +5101,94 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E26" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F26" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.581</v>
       </c>
       <c r="H26" t="n">
         <v>48.3</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>80.3</v>
+        <v>80.7</v>
       </c>
       <c r="K26" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L26" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M26" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.341</v>
+        <v>0.344</v>
       </c>
       <c r="O26" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P26" t="n">
         <v>22.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.799</v>
+        <v>0.798</v>
       </c>
       <c r="R26" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="S26" t="n">
         <v>27.1</v>
       </c>
       <c r="T26" t="n">
-        <v>39.1</v>
+        <v>39.3</v>
       </c>
       <c r="U26" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V26" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W26" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X26" t="n">
         <v>4.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Z26" t="n">
         <v>19.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AB26" t="n">
-        <v>96.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AF26" t="n">
         <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
         <v>16</v>
@@ -5130,31 +5197,31 @@
         <v>25</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AK26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL26" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AM26" t="n">
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO26" t="n">
         <v>17</v>
       </c>
       <c r="AP26" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
       </c>
       <c r="AR26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS26" t="n">
         <v>29</v>
@@ -5172,7 +5239,7 @@
         <v>4</v>
       </c>
       <c r="AX26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY26" t="n">
         <v>4</v>
@@ -5181,13 +5248,13 @@
         <v>5</v>
       </c>
       <c r="BA26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BB26" t="n">
         <v>23</v>
       </c>
       <c r="BC26" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -5219,19 +5286,19 @@
         <v>73</v>
       </c>
       <c r="E27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F27" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" t="n">
-        <v>0.274</v>
+        <v>0.288</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J27" t="n">
         <v>84.90000000000001</v>
@@ -5243,37 +5310,37 @@
         <v>5.3</v>
       </c>
       <c r="M27" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O27" t="n">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="P27" t="n">
-        <v>23.8</v>
+        <v>24.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.73</v>
+        <v>0.731</v>
       </c>
       <c r="R27" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="S27" t="n">
         <v>30.7</v>
       </c>
       <c r="T27" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U27" t="n">
         <v>20.2</v>
       </c>
       <c r="V27" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="W27" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X27" t="n">
         <v>4.8</v>
@@ -5285,16 +5352,16 @@
         <v>22.2</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.3</v>
+        <v>-5.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE27" t="n">
         <v>26</v>
@@ -5309,10 +5376,10 @@
         <v>10</v>
       </c>
       <c r="AI27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK27" t="n">
         <v>22</v>
@@ -5321,19 +5388,19 @@
         <v>25</v>
       </c>
       <c r="AM27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO27" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AP27" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AQ27" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR27" t="n">
         <v>2</v>
@@ -5342,16 +5409,16 @@
         <v>14</v>
       </c>
       <c r="AT27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU27" t="n">
         <v>24</v>
       </c>
       <c r="AV27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX27" t="n">
         <v>15</v>
@@ -5360,13 +5427,13 @@
         <v>21</v>
       </c>
       <c r="AZ27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BB27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BC27" t="n">
         <v>25</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -5398,25 +5465,25 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E28" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F28" t="n">
         <v>17</v>
       </c>
       <c r="G28" t="n">
-        <v>0.767</v>
+        <v>0.77</v>
       </c>
       <c r="H28" t="n">
         <v>48.2</v>
       </c>
       <c r="I28" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J28" t="n">
-        <v>80.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K28" t="n">
         <v>0.474</v>
@@ -5425,16 +5492,16 @@
         <v>8.4</v>
       </c>
       <c r="M28" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N28" t="n">
         <v>0.399</v>
       </c>
       <c r="O28" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="P28" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="Q28" t="n">
         <v>0.766</v>
@@ -5443,25 +5510,25 @@
         <v>10</v>
       </c>
       <c r="S28" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T28" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U28" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V28" t="n">
         <v>13.5</v>
       </c>
       <c r="W28" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X28" t="n">
         <v>4.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Z28" t="n">
         <v>18.8</v>
@@ -5470,13 +5537,13 @@
         <v>20.6</v>
       </c>
       <c r="AB28" t="n">
-        <v>103.1</v>
+        <v>103.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5488,13 +5555,13 @@
         <v>1</v>
       </c>
       <c r="AH28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI28" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK28" t="n">
         <v>5</v>
@@ -5512,16 +5579,16 @@
         <v>13</v>
       </c>
       <c r="AP28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ28" t="n">
         <v>16</v>
       </c>
       <c r="AR28" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AS28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT28" t="n">
         <v>13</v>
@@ -5533,7 +5600,7 @@
         <v>8</v>
       </c>
       <c r="AW28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX28" t="n">
         <v>19</v>
@@ -5542,16 +5609,16 @@
         <v>15</v>
       </c>
       <c r="AZ28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA28" t="n">
         <v>18</v>
       </c>
       <c r="BB28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -5595,13 +5662,13 @@
         <v>48.3</v>
       </c>
       <c r="I29" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="J29" t="n">
-        <v>82.7</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K29" t="n">
-        <v>0.467</v>
+        <v>0.465</v>
       </c>
       <c r="L29" t="n">
         <v>4.3</v>
@@ -5610,28 +5677,28 @@
         <v>13.7</v>
       </c>
       <c r="N29" t="n">
-        <v>0.316</v>
+        <v>0.315</v>
       </c>
       <c r="O29" t="n">
         <v>17.9</v>
       </c>
       <c r="P29" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.756</v>
+        <v>0.754</v>
       </c>
       <c r="R29" t="n">
         <v>11.6</v>
       </c>
       <c r="S29" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="T29" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U29" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V29" t="n">
         <v>14.7</v>
@@ -5643,13 +5710,13 @@
         <v>4.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z29" t="n">
         <v>22.1</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="AB29" t="n">
         <v>99.3</v>
@@ -5658,28 +5725,28 @@
         <v>-6.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AH29" t="n">
         <v>18</v>
       </c>
       <c r="AI29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL29" t="n">
         <v>29</v>
@@ -5691,19 +5758,19 @@
         <v>30</v>
       </c>
       <c r="AO29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP29" t="n">
         <v>19</v>
       </c>
-      <c r="AP29" t="n">
-        <v>20</v>
-      </c>
       <c r="AQ29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT29" t="n">
         <v>25</v>
@@ -5712,25 +5779,25 @@
         <v>11</v>
       </c>
       <c r="AV29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AY29" t="n">
         <v>23</v>
       </c>
-      <c r="AW29" t="n">
-        <v>18</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>22</v>
-      </c>
       <c r="AZ29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA29" t="n">
         <v>26</v>
       </c>
       <c r="BB29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC29" t="n">
         <v>28</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -5762,61 +5829,61 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E30" t="n">
         <v>36</v>
       </c>
       <c r="F30" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G30" t="n">
-        <v>0.493</v>
+        <v>0.48</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J30" t="n">
-        <v>80.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L30" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M30" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="N30" t="n">
-        <v>0.347</v>
+        <v>0.344</v>
       </c>
       <c r="O30" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="P30" t="n">
-        <v>25.3</v>
+        <v>25.6</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.776</v>
+        <v>0.774</v>
       </c>
       <c r="R30" t="n">
         <v>10.9</v>
       </c>
       <c r="S30" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="T30" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="U30" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="V30" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W30" t="n">
         <v>7.7</v>
@@ -5825,40 +5892,40 @@
         <v>5.9</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="AA30" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>100.2</v>
+        <v>100</v>
       </c>
       <c r="AC30" t="n">
-        <v>-1.2</v>
+        <v>-1.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
       </c>
       <c r="AF30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AH30" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AK30" t="n">
         <v>10</v>
@@ -5867,10 +5934,10 @@
         <v>24</v>
       </c>
       <c r="AM30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN30" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5879,19 +5946,19 @@
         <v>7</v>
       </c>
       <c r="AQ30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AS30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT30" t="n">
         <v>27</v>
       </c>
       <c r="AU30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV30" t="n">
         <v>17</v>
@@ -5912,7 +5979,7 @@
         <v>2</v>
       </c>
       <c r="BB30" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC30" t="n">
         <v>20</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
@@ -5959,22 +6026,22 @@
         <v>48.6</v>
       </c>
       <c r="I31" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J31" t="n">
         <v>83.90000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.441</v>
+        <v>0.44</v>
       </c>
       <c r="L31" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M31" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="N31" t="n">
-        <v>0.333</v>
+        <v>0.328</v>
       </c>
       <c r="O31" t="n">
         <v>17.8</v>
@@ -5986,13 +6053,13 @@
         <v>0.749</v>
       </c>
       <c r="R31" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S31" t="n">
         <v>28.9</v>
       </c>
       <c r="T31" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U31" t="n">
         <v>19.7</v>
@@ -6010,19 +6077,19 @@
         <v>4.9</v>
       </c>
       <c r="Z31" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AA31" t="n">
         <v>20.2</v>
       </c>
       <c r="AB31" t="n">
-        <v>96.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.9</v>
+        <v>-8.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6043,7 +6110,7 @@
         <v>5</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>27</v>
@@ -6058,22 +6125,22 @@
         <v>20</v>
       </c>
       <c r="AP31" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ31" t="n">
         <v>24</v>
       </c>
       <c r="AR31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AS31" t="n">
         <v>25</v>
       </c>
       <c r="AT31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV31" t="n">
         <v>26</v>
@@ -6088,7 +6155,7 @@
         <v>18</v>
       </c>
       <c r="AZ31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA31" t="n">
         <v>23</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-30-2010-11</t>
+          <t>2011-03-30</t>
         </is>
       </c>
     </row>
